--- a/public/uploads/guest_lists/booking_1.xlsx
+++ b/public/uploads/guest_lists/booking_1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>họ tên</t>
   </si>
@@ -374,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,6 +419,74 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3">
+        <v>2343423</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4">
+        <v>2343423</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5">
+        <v>2343423</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2000</v>
+      </c>
+      <c r="D6">
+        <v>2343423</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
